--- a/biology/Zoologie/Ctenacis_fehlmanni/Ctenacis_fehlmanni.xlsx
+++ b/biology/Zoologie/Ctenacis_fehlmanni/Ctenacis_fehlmanni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenacis fehlmanni
 Le requin-chat arlequin (Ctenacis fehlmanni)  est une espèce de requins de la famille des requins-chats (Proscylliidae), seule espèce du genre Ctenacis (monotypique).
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles mesurent jusqu'à 52 cm de long[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent jusqu'à 52 cm de long.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenacis fehlmanni se rencontre dans la partie ouest de l'océan Indien le long des côtes d'Afrique, au large de la Somalie. Il vit sur l’extérieur du plateau continental de 70 à 170 m de fond[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenacis fehlmanni se rencontre dans la partie ouest de l'océan Indien le long des côtes d'Afrique, au large de la Somalie. Il vit sur l’extérieur du plateau continental de 70 à 170 m de fond.
 </t>
         </is>
       </c>
